--- a/docs/StructureDefinition-Observation-gestational-age-at-delivery.xlsx
+++ b/docs/StructureDefinition-Observation-gestational-age-at-delivery.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="532">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T11:56:10-05:00</t>
+    <t>2024-02-27T09:44:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,9 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The obstetric estimate of the infant’s gestation in completed weeks based on the birth/delivery attendant’s final estimate of gestation which should be determined by all perinatal factors and assessments such as ultrasound, but not the neonatal exam. Migrated from VRCL.</t>
+    <t>The obstetric estimate of the infant’s gestation in completed weeks based on the birth/delivery attendant’s final estimate of gestation which should be 
+determined by all perinatal factors and assessments such as ultrasound, but not the neonatal exam.  For submission to NCHS, values in days will be divided by 7 without remainder, and values
+in weeks will be rounded down to an integer.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -674,7 +676,7 @@
 </t>
   </si>
   <si>
-    <t>Type of observation (code / type)</t>
+    <t>Gestational age Estimated</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "name".</t>
@@ -901,7 +903,7 @@
 </t>
   </si>
   <si>
-    <t>Age in weeks</t>
+    <t>Age in weeks or days</t>
   </si>
   <si>
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
@@ -1152,7 +1154,7 @@
     <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
   </si>
   <si>
-    <t>wk</t>
+    <t>http://hl7.org/fhir/us/bfdr/ValueSet/ValueSet-units-of-gestational-age</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -6210,31 +6212,29 @@
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="Y35" s="2"/>
+      <c r="Z35" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>82</v>

--- a/docs/StructureDefinition-Observation-gestational-age-at-delivery.xlsx
+++ b/docs/StructureDefinition-Observation-gestational-age-at-delivery.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T09:44:15-05:00</t>
+    <t>2024-03-05T09:43:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Observation-gestational-age-at-delivery.xlsx
+++ b/docs/StructureDefinition-Observation-gestational-age-at-delivery.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T09:43:17-05:00</t>
+    <t>2024-05-01T14:05:02-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
